--- a/reports/data_report_4.xlsx
+++ b/reports/data_report_4.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="A2:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
